--- a/Data/g19.13.xlsx
+++ b/Data/g19.13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E4E5B-1BE4-4990-B5BC-1AAF9C47D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8266ECA4-B7E9-4AFB-A9CB-94B287F0CD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
   <si>
     <t>Região</t>
   </si>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="A12" sqref="A12:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -498,7 +500,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -513,7 +517,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -528,7 +534,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -558,7 +566,9 @@
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -571,7 +581,9 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -584,7 +596,9 @@
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -597,7 +611,9 @@
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -625,6 +641,9 @@
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -636,6 +655,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -647,6 +669,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -658,6 +683,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>

--- a/Data/g19.13.xlsx
+++ b/Data/g19.13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8266ECA4-B7E9-4AFB-A9CB-94B287F0CD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB90C4-EEF6-4C90-B878-19DEDC2C2C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
